--- a/resources/commentarynotes.csv.xlsx
+++ b/resources/commentarynotes.csv.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jacknoutch\ecl_commentary\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A5FF6-3287-4B3E-94BD-02E30FCE5435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3232B563-8D7D-4C50-AADC-6C59A62CA4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{8565CCEF-CA74-4B1D-8BD1-669E61DA3DAB}"/>
+    <workbookView xWindow="-98" yWindow="8902" windowWidth="20715" windowHeight="13155" xr2:uid="{8565CCEF-CA74-4B1D-8BD1-669E61DA3DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -62,73 +63,82 @@
     <t>postquam nos Amaryllis habet, Galatea reliquit</t>
   </si>
   <si>
-    <t>something about these phrases in apposition and in historic present</t>
-  </si>
-  <si>
     <t>sua… in arbore poma</t>
   </si>
   <si>
-    <t>sua refers to the arbor</t>
-  </si>
-  <si>
     <t>mirabar, quid… cui…</t>
   </si>
   <si>
-    <t>mirabar introduces two indirect questions</t>
-  </si>
-  <si>
     <t>ante… ante… quam</t>
   </si>
   <si>
-    <t>antequam is split</t>
-  </si>
-  <si>
-    <t>1.60ff.</t>
-  </si>
-  <si>
     <t>alii… pars</t>
   </si>
   <si>
-    <t>1.65-6</t>
-  </si>
-  <si>
-    <t>some… others…</t>
-  </si>
-  <si>
     <t>caespite</t>
   </si>
   <si>
-    <t>turf used as a building material</t>
-  </si>
-  <si>
-    <t>poetic plural</t>
-  </si>
-  <si>
-    <t>regna</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>1.69</t>
-  </si>
-  <si>
     <t>ordine</t>
   </si>
   <si>
     <t>"in rows"</t>
   </si>
   <si>
-    <t>1.74</t>
-  </si>
-  <si>
     <t>fronde</t>
   </si>
   <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>as bedding (see OLD)</t>
+    <t>habet… reliquit</t>
+  </si>
+  <si>
+    <t>1.31.4, 1.31.6</t>
+  </si>
+  <si>
+    <t>historic present</t>
+  </si>
+  <si>
+    <t>&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.31.3--1.31.4')"&gt;Amaryllis habet&lt;/a&gt;&lt;/span&gt; and &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.31.5--1.31.6')"&gt;Galatea reliquit&lt;/a&gt;&lt;/span&gt; are in apposition: "after Amaryllis held me, and Galatea left me"</t>
+  </si>
+  <si>
+    <t>1.31.1, 1.31.2, 1.31.3, 1.31.4, 1.31.5, 1.31.6</t>
+  </si>
+  <si>
+    <t>&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.38.3')"&gt;sua&lt;/a&gt;&lt;/span&gt; refers to the tree (&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.38.6')"&gt;arbore&lt;/a&gt;&lt;/span&gt;): "[the tree's] fruits in the tree"</t>
+  </si>
+  <si>
+    <t>1.38.3, 1.38.5, 1.38.6, 1.38.7</t>
+  </si>
+  <si>
+    <t>1.37.1, 1.37.2, 1.38.1</t>
+  </si>
+  <si>
+    <t>&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.37.1')"&gt;mirabar&lt;/a&gt;&lt;/span&gt; introduces two indirect questions (which are in apposition) with &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.37.2')"&gt;quid&lt;/a&gt;&lt;/span&gt; and &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.38.1')"&gt;cui&lt;/a&gt;&lt;/span&gt;: "I was wondering why... [and] for whom"</t>
+  </si>
+  <si>
+    <t>1.60.1, 1.62.1, 1.64.1</t>
+  </si>
+  <si>
+    <t>&lt;span class='lt'&gt;ante&lt;/span&gt; at &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.60.1')"&gt;60&lt;/a&gt;&lt;/span&gt; and &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.62.1')"&gt;62&lt;/a&gt;&lt;/span&gt; anticipate &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.64.1')"&gt;quam&lt;/a&gt;&lt;/span&gt;; like a usual &lt;span class='lt'&gt;antequam&lt;/span&gt; temporal clause, leave aside the &lt;span class='lt'&gt;ante&lt;/span&gt;, and translate &lt;span class='lt'&gt;quam&lt;/span&gt; as "after"</t>
+  </si>
+  <si>
+    <t>1.65.4, 1.66.1</t>
+  </si>
+  <si>
+    <t>1.69.5</t>
+  </si>
+  <si>
+    <t>1.74.6</t>
+  </si>
+  <si>
+    <t>1.81.1</t>
+  </si>
+  <si>
+    <t>turf (&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.69.5')&gt;&lt;/a&gt;&lt;/span&gt;) was used as a building material</t>
+  </si>
+  <si>
+    <t>like &lt;span class='lt'&gt;alii… alii… &lt;/span&gt; or &lt;span class='lt'&gt;pars… pars… &lt;/span&gt;, &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.65.4')"&gt;alii&lt;/a&gt;&lt;/span&gt; and &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.66.1')"&gt;causa vivendi&lt;/a&gt;&lt;/span&gt; are "some... others..."</t>
+  </si>
+  <si>
+    <t>used here as bedding</t>
   </si>
 </sst>
 </file>
@@ -488,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B775DB9-B73F-49F0-A9E8-1E19210DCC21}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -538,9 +548,11 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -548,11 +560,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -560,11 +574,13 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -572,13 +588,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -586,13 +602,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -600,116 +616,210 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>31</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>32</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>33</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>34</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>35</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>36</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>37</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>38</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>39</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>40</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>41</v>
+      </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>42</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>43</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>45</v>
+      </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>46</v>
+      </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>47</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>48</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8958434-7A11-4576-9D67-506EA9985D9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/commentarynotes.csv.xlsx
+++ b/resources/commentarynotes.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jacknoutch\ecl_commentary\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3232B563-8D7D-4C50-AADC-6C59A62CA4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB47650-F67F-4D64-93BB-67F6F8D89433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="8902" windowWidth="20715" windowHeight="13155" xr2:uid="{8565CCEF-CA74-4B1D-8BD1-669E61DA3DAB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -96,30 +96,12 @@
     <t>historic present</t>
   </si>
   <si>
-    <t>&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.31.3--1.31.4')"&gt;Amaryllis habet&lt;/a&gt;&lt;/span&gt; and &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.31.5--1.31.6')"&gt;Galatea reliquit&lt;/a&gt;&lt;/span&gt; are in apposition: "after Amaryllis held me, and Galatea left me"</t>
-  </si>
-  <si>
-    <t>1.31.1, 1.31.2, 1.31.3, 1.31.4, 1.31.5, 1.31.6</t>
-  </si>
-  <si>
-    <t>&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.38.3')"&gt;sua&lt;/a&gt;&lt;/span&gt; refers to the tree (&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.38.6')"&gt;arbore&lt;/a&gt;&lt;/span&gt;): "[the tree's] fruits in the tree"</t>
-  </si>
-  <si>
-    <t>1.38.3, 1.38.5, 1.38.6, 1.38.7</t>
-  </si>
-  <si>
     <t>1.37.1, 1.37.2, 1.38.1</t>
   </si>
   <si>
-    <t>&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.37.1')"&gt;mirabar&lt;/a&gt;&lt;/span&gt; introduces two indirect questions (which are in apposition) with &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.37.2')"&gt;quid&lt;/a&gt;&lt;/span&gt; and &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.38.1')"&gt;cui&lt;/a&gt;&lt;/span&gt;: "I was wondering why... [and] for whom"</t>
-  </si>
-  <si>
     <t>1.60.1, 1.62.1, 1.64.1</t>
   </si>
   <si>
-    <t>&lt;span class='lt'&gt;ante&lt;/span&gt; at &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.60.1')"&gt;60&lt;/a&gt;&lt;/span&gt; and &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.62.1')"&gt;62&lt;/a&gt;&lt;/span&gt; anticipate &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.64.1')"&gt;quam&lt;/a&gt;&lt;/span&gt;; like a usual &lt;span class='lt'&gt;antequam&lt;/span&gt; temporal clause, leave aside the &lt;span class='lt'&gt;ante&lt;/span&gt;, and translate &lt;span class='lt'&gt;quam&lt;/span&gt; as "after"</t>
-  </si>
-  <si>
     <t>1.65.4, 1.66.1</t>
   </si>
   <si>
@@ -132,26 +114,53 @@
     <t>1.81.1</t>
   </si>
   <si>
-    <t>turf (&lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.69.5')&gt;&lt;/a&gt;&lt;/span&gt;) was used as a building material</t>
-  </si>
-  <si>
-    <t>like &lt;span class='lt'&gt;alii… alii… &lt;/span&gt; or &lt;span class='lt'&gt;pars… pars… &lt;/span&gt;, &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.65.4')"&gt;alii&lt;/a&gt;&lt;/span&gt; and &lt;span class='lt'&gt;&lt;a href="javascript:void(0)" onclick="quickHighlight('1.66.1')"&gt;causa vivendi&lt;/a&gt;&lt;/span&gt; are "some... others..."</t>
-  </si>
-  <si>
     <t>used here as bedding</t>
+  </si>
+  <si>
+    <t>1.38.3, 1.38.5--1.38.7</t>
+  </si>
+  <si>
+    <t>1.31.1--1.31.6</t>
+  </si>
+  <si>
+    <t>\ref{1.26.7--1.26.8} \lt{causa vivendi} - "reason for seeing"</t>
+  </si>
+  <si>
+    <t>\ref{1.31.3--1.31.4} \lt{Amaryllis habet} and \ref{1.31.5--1.31.6} \lt{Galatea reliquit} are in apposition: "after Amaryllis held me, and Galatea left me"</t>
+  </si>
+  <si>
+    <t>\lt\ref{1.37.1mirabar introduces two indirect questions (which are in apposition) with \lt\ref{1.37.2quid and \lt\ref{1.38.1cui: "I was wondering why... [and] for whom"</t>
+  </si>
+  <si>
+    <t>\ltante&lt;/span at \lt\ref{1.60.160 and \lt\ref{1.62.162 anticipate \lt\ref{1.64.1quam; like a usual \ltantequam&lt;/span temporal clause, leave aside the \ltante&lt;/span, and translate \ltquam&lt;/span as "after"</t>
+  </si>
+  <si>
+    <t>like \ltalii… alii… &lt;/span or \ltpars… pars… &lt;/span, \lt\ref{1.65.4alii and \lt\ref{1.66.1causa vivendi are "some... others..."</t>
+  </si>
+  <si>
+    <t>turf (\lt\ref{1.69.5')) was used as a building material</t>
+  </si>
+  <si>
+    <t>\ref{1.38.3; \lt{sua}} refers to the tree (\ref{1.38.6; \lt{arbore}}): "[the tree's] fruits in the tree"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -180,10 +189,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,305 +520,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B775DB9-B73F-49F0-A9E8-1E19210DCC21}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="108.46484375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="108.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>34</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>35</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>36</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>37</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>38</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>39</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>40</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>41</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>42</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>43</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>44</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>45</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>46</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>47</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>48</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>53</v>
       </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -812,9 +883,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
